--- a/vertx-pin/zero-is/src/main/resources/modulat/zero-f.notification.xlsx
+++ b/vertx-pin/zero-is/src/main/resources/modulat/zero-f.notification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-is/src/main/resources/modulat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0756A84F-9065-CF40-AE41-1EB0F8235FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A49D092-DF25-9B46-BF06-8CDA27A738CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="56460" yWindow="980" windowWidth="53400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -275,14 +275,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ZERO-F.ALERT.MAIL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZERO-F.ALERT.SMS</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BLOCK_ALERT_MAIL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -291,30 +283,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>JSON:modulat/zero-f.notification/mail.ui-config.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:modulat/zero-f.notification/sms.ui-config.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:modulat/zero-f.notification/mail.lic-identifier.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:modulat/zero-f.notification/sms.lic-identifier.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:modulat/zero-f.notification/mail.lic-menu.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSON:modulat/zero-f.notification/sms.lic-menu.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>b6c3eee4-577a-4f81-b69c-394c18310211</t>
   </si>
   <si>
@@ -333,6 +301,38 @@
   </si>
   <si>
     <t>Z-FOUNDATION</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZERO-F.ALERT_MAIL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZERO-F.ALERT_SMS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-f.notification/ALERT_MAIL/ui-config.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-f.notification/ALERT_MAIL/lic-identifier.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-f.notification/ALERT_MAIL/lic-menu.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-f.notification/ALERT_SMS/ui-config.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-f.notification/ALERT_SMS/lic-identifier.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-f.notification/ALERT_SMS/lic-menu.json</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -826,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:I2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -836,13 +836,13 @@
     <col min="2" max="2" width="53.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.5" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="72.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="68.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="82.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="78.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="38.83203125" style="2" bestFit="1" customWidth="1"/>
@@ -900,7 +900,7 @@
         <v>11</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -929,12 +929,12 @@
         <v>18</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>19</v>
@@ -956,7 +956,7 @@
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1092,7 +1092,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="7" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B15" s="8" t="str">
         <f>A$5</f>
@@ -1102,26 +1102,26 @@
         <v>58</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F15" s="5">
         <v>1005</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="L15" s="12" t="s">
         <v>51</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B16" s="8" t="str">
         <f t="shared" ref="B16" si="0">A$5</f>
@@ -1148,26 +1148,26 @@
         <v>59</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F16" s="5">
         <v>1010</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="L16" s="12" t="s">
         <v>51</v>

--- a/vertx-pin/zero-is/src/main/resources/modulat/zero-f.notification.xlsx
+++ b/vertx-pin/zero-is/src/main/resources/modulat/zero-f.notification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-is/src/main/resources/modulat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A49D092-DF25-9B46-BF06-8CDA27A738CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079B4E56-5933-544C-9463-BD6425EE9AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="56460" yWindow="980" windowWidth="53400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="60300" yWindow="-20" windowWidth="53400" windowHeight="22620" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
   <si>
     <t>key</t>
   </si>
@@ -334,6 +334,28 @@
   <si>
     <t>JSON:modulat/zero-f.notification/ALERT_SMS/lic-menu.json</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZERO-F.ALERT_SOCK</t>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-f.notification/ALERT_SOCK/ui-config.json</t>
+  </si>
+  <si>
+    <t>BLOCK_ALERT_SOCK</t>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-f.notification/ALERT_SOCK/lic-identifier.json</t>
+  </si>
+  <si>
+    <t>JSON:modulat/zero-f.notification/ALERT_SOCK/lic-menu.json</t>
+  </si>
+  <si>
+    <t>af54280e-5a8a-429d-aa1e-522027a88897</t>
   </si>
 </sst>
 </file>
@@ -824,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1182,6 +1204,52 @@
         <v>52</v>
       </c>
     </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="8" t="str">
+        <f t="shared" ref="B17" si="1">A$5</f>
+        <v>b6c3eee4-577a-4f81-b69c-394c18310211</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1015</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C12:Q12"/>
